--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38580.6825411981</v>
+        <v>-41281.89919265548</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12663340.06270971</v>
+        <v>12663340.0627097</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.1383913127195</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59.8012719186828</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>81.10851687400105</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>87.45036233577484</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>123.7626310718405</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>75.02623601535653</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.4075712450448</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863676</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>116.3383098820446</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154316</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951724</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713778</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.04821402534672</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>143.5293110515795</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>135.4739678040371</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1105,19 +1105,19 @@
         <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>161.9019557388288</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>180.2158708563821</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>92.7570421380623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>49.57372789032991</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,13 +1345,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>46.3673476177977</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>240.1044458298944</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184543</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>130.4481269408948</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.5089280640947</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
-        <v>125.6731535744626</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272907</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.6362351538511</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>1.839588425940237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>80.10107535865899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>247.2924896597623</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141589</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>247.2924896597625</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624818</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>139.9537444639927</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428188</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>39.96816871822047</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>20.88994825141594</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.385206357344</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>222.7171375262266</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>158.7907697006104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2875691835745</v>
+        <v>367.789405660333</v>
       </c>
       <c r="C2" t="n">
-        <v>416.9099126163966</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163966</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>94.46624834395162</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>81.50243557050716</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991318</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.8274961801188</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C3" t="n">
-        <v>246.8274961801188</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>246.8274961801188</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374624</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374624</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057196</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W3" t="n">
-        <v>622.8943334057196</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="X3" t="n">
-        <v>415.0428332001868</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.0428332001868</v>
+        <v>398.4938728567101</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.4177110298542</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>723.0557267581113</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>723.0557267581113</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>723.0557267581113</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W4" t="n">
-        <v>723.0557267581113</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X4" t="n">
-        <v>495.0661758600939</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.0661758600939</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>832.5231117293782</v>
+        <v>50.18495430551873</v>
       </c>
       <c r="C5" t="n">
-        <v>463.5605947889665</v>
+        <v>50.18495430551873</v>
       </c>
       <c r="D5" t="n">
-        <v>463.5605947889665</v>
+        <v>50.18495430551873</v>
       </c>
       <c r="E5" t="n">
-        <v>463.5605947889665</v>
+        <v>50.18495430551873</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6150940397631</v>
+        <v>43.23945355631526</v>
       </c>
       <c r="G5" t="n">
-        <v>444.0706587086823</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275181</v>
+        <v>93.76641159275167</v>
       </c>
       <c r="K5" t="n">
-        <v>239.032598924557</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825647</v>
+        <v>456.1499114825639</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748877</v>
+        <v>729.404193174887</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202381</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798416</v>
+        <v>1264.916654798415</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189414</v>
+        <v>1446.535482189412</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="S5" t="n">
-        <v>1417.237466936431</v>
+        <v>1389.996673518254</v>
       </c>
       <c r="T5" t="n">
-        <v>1417.237466936431</v>
+        <v>1177.39844210733</v>
       </c>
       <c r="U5" t="n">
-        <v>1163.585999072949</v>
+        <v>923.7469742438475</v>
       </c>
       <c r="V5" t="n">
-        <v>832.5231117293782</v>
+        <v>923.7469742438475</v>
       </c>
       <c r="W5" t="n">
-        <v>832.5231117293782</v>
+        <v>923.7469742438475</v>
       </c>
       <c r="X5" t="n">
-        <v>832.5231117293782</v>
+        <v>550.2812159827677</v>
       </c>
       <c r="Y5" t="n">
-        <v>832.5231117293782</v>
+        <v>162.7178545530387</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525.4947686203427</v>
+        <v>179.6294278864858</v>
       </c>
       <c r="C6" t="n">
-        <v>351.0417393392157</v>
+        <v>179.6294278864858</v>
       </c>
       <c r="D6" t="n">
-        <v>351.0417393392157</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="E6" t="n">
-        <v>351.0417393392157</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="F6" t="n">
-        <v>204.5071813661007</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626393</v>
+        <v>49.44206107563438</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101442</v>
+        <v>159.638568016945</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414966</v>
+        <v>539.4894185542223</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122431</v>
+        <v>785.8131792249685</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584466</v>
+        <v>1053.065041797191</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749985</v>
+        <v>1275.32848896271</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948673</v>
+        <v>1434.381434161398</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261729</v>
+        <v>1530.346686757975</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655824</v>
+        <v>1385.87827315207</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207508</v>
+        <v>1189.973630703754</v>
       </c>
       <c r="U6" t="n">
-        <v>966.256771528112</v>
+        <v>1189.973630703754</v>
       </c>
       <c r="V6" t="n">
-        <v>966.256771528112</v>
+        <v>954.8215224720118</v>
       </c>
       <c r="W6" t="n">
-        <v>901.5616058459436</v>
+        <v>700.5841657438102</v>
       </c>
       <c r="X6" t="n">
-        <v>693.7101056404108</v>
+        <v>555.6050636715077</v>
       </c>
       <c r="Y6" t="n">
-        <v>693.7101056404108</v>
+        <v>347.8447649065538</v>
       </c>
     </row>
     <row r="7">
@@ -4702,40 +4702,40 @@
         <v>349.7478405654772</v>
       </c>
       <c r="C7" t="n">
-        <v>180.8116576375703</v>
+        <v>180.8116576375702</v>
       </c>
       <c r="D7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="E7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="F7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="K7" t="n">
-        <v>157.432275622327</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830395</v>
+        <v>375.1387655830392</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388161</v>
+        <v>615.0688576388158</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974836</v>
+        <v>854.7285647974832</v>
       </c>
       <c r="O7" t="n">
         <v>1060.076798891673</v>
@@ -4744,31 +4744,31 @@
         <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529575</v>
+        <v>1030.691890529574</v>
       </c>
       <c r="T7" t="n">
-        <v>867.1545615004552</v>
+        <v>1030.691890529574</v>
       </c>
       <c r="U7" t="n">
-        <v>867.1545615004552</v>
+        <v>1030.691890529574</v>
       </c>
       <c r="V7" t="n">
-        <v>867.1545615004552</v>
+        <v>776.0074023236874</v>
       </c>
       <c r="W7" t="n">
-        <v>577.7373914634945</v>
+        <v>486.5902322867268</v>
       </c>
       <c r="X7" t="n">
-        <v>349.7478405654772</v>
+        <v>486.5902322867268</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.7478405654772</v>
+        <v>486.5902322867268</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.346298904865</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.383781964454</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>1041.721523379427</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>655.9332707811825</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>648.987770031979</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>233.2830197562679</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>2343.946138968987</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>168.00081891452</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380228</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694945</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.9787363064644</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>664.9787363064644</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1586.371647458003</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1389.742899617864</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.419780280234</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.419780280234</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.6272011367041</v>
+        <v>656.8535021729067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1872.090169197696</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1503.127652257284</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1144.861953650534</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>759.0737010522903</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>759.0737010522903</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>344.4579364934358</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656966</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345378</v>
+        <v>3776.999350345381</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3573.020743926745</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926743</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.957856583173</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>3110.192071794389</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.192071794389</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818578</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>612.5381326449935</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1120.494698601522</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720356</v>
+        <v>1656.304008302733</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052879</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2401.180957052879</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
         <v>2544.650348868987</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.7893828380001</v>
+        <v>184.1123407281377</v>
       </c>
       <c r="C13" t="n">
-        <v>666.8531999100932</v>
+        <v>184.1123407281377</v>
       </c>
       <c r="D13" t="n">
-        <v>516.7365604977574</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153643</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="F13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
         <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.169024664815</v>
+        <v>364.1690246648149</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.5788654344816</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2010.420389374664</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1789.529056809105</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1789.529056809105</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1534.844568603218</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1245.427398566257</v>
+        <v>814.5429355999247</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.43784766824</v>
+        <v>586.5533847019074</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.43784766824</v>
+        <v>365.7608055583775</v>
       </c>
     </row>
     <row r="14">
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603199</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947397</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.60190374151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.18473370455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806532</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.07903472198</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,10 +5671,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5683,10 +5683,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5972,52 +5972,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1888.077129657224</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2311.700279152292</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,22 +6224,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,7 +6312,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824513</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
         <v>93.81666304797187</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238954</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>1888.077129657224</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2311.700279152292</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
-        <v>2544.961939527175</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1089.917939501688</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>920.9817565737815</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.348534373475</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1492.358983475458</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1271.566404331928</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,7 +6971,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7020,10 +7020,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380888</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101819</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978462</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036841</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683285</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,19 +7175,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424038</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>376.4492432300681</v>
       </c>
       <c r="E40" t="n">
         <v>240.7066105458822</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038341</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7397,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
@@ -7418,31 +7418,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123002</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.7311804011395</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>699.7311804011395</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888038</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888038</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956956</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1102.172224374909</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>881.3796452313788</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647279</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949676</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636983</v>
+        <v>34.43939438636994</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>105.5468419254487</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>187.2277845514395</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.41009271441756</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.87305750948038</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>218.7928417765182</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.10654495411761</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>60.56153541757424</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.9484181982437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393061</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>38.89198472948186</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>38.89198472948166</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.661728554219621</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864937</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>106.4657939283487</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>144.6341900408529</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922517</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.992517862810416</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>8.456051398017422</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>996314.8073505828</v>
+        <v>996314.8073505833</v>
       </c>
     </row>
     <row r="6">
@@ -26314,19 +26314,19 @@
         <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>293035.6977097584</v>
+        <v>293035.6977097586</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26335,25 +26335,25 @@
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="K2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760026</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760025</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657081</v>
+        <v>132804.2190657077</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929367</v>
+        <v>265413.0723929371</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545774</v>
+        <v>313577.1573545783</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.268770428</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911432</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.4292641745</v>
+        <v>30877.42926417437</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204954</v>
+        <v>65018.34502049553</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273083</v>
+        <v>81897.40371273097</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.57413202344</v>
       </c>
       <c r="O3" t="n">
-        <v>1.029028291148799e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="C4" t="n">
-        <v>210579.7944078826</v>
+        <v>210579.7944078828</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
@@ -26427,34 +26427,34 @@
         <v>8011.893867085435</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.31242673198</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731956</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731969</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731971</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731987</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731959</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732098</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667503</v>
+        <v>72593.65038667498</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-661472.9432479775</v>
+        <v>-661472.9432479774</v>
       </c>
       <c r="C6" t="n">
-        <v>-87560.95591455212</v>
+        <v>-87560.95591455184</v>
       </c>
       <c r="D6" t="n">
-        <v>-164252.1371489315</v>
+        <v>-164252.1371489322</v>
       </c>
       <c r="E6" t="n">
-        <v>-113690.8385792901</v>
+        <v>-113911.9698932656</v>
       </c>
       <c r="F6" t="n">
-        <v>24310.5288549347</v>
+        <v>24275.79092949958</v>
       </c>
       <c r="G6" t="n">
-        <v>213618.797625363</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="H6" t="n">
-        <v>213618.7976253635</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="I6" t="n">
-        <v>213618.7976253635</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="J6" t="n">
-        <v>144619.643206249</v>
+        <v>144584.9052808136</v>
       </c>
       <c r="K6" t="n">
-        <v>182741.3683611888</v>
+        <v>182706.6304357531</v>
       </c>
       <c r="L6" t="n">
-        <v>148600.452604868</v>
+        <v>148565.714679432</v>
       </c>
       <c r="M6" t="n">
-        <v>131721.3939126326</v>
+        <v>131686.6559871967</v>
       </c>
       <c r="N6" t="n">
-        <v>163779.2234933397</v>
+        <v>163744.485567904</v>
       </c>
       <c r="O6" t="n">
-        <v>213618.7976253632</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="P6" t="n">
-        <v>213618.7976253635</v>
+        <v>213584.0596999276</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695757</v>
+        <v>717.3319511695753</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154321</v>
+        <v>383.6877278154316</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490093</v>
+        <v>969.2208239490099</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000974</v>
+        <v>103.276937400097</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479636</v>
+        <v>216.7329409479639</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974121</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.973847813926</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846067</v>
+        <v>256.8971042846072</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.635991848971</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813926</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846067</v>
+        <v>256.8971042846072</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.635991848971</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813926</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846067</v>
+        <v>256.8971042846072</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.635991848971</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.5954503507611</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>101.5590117695014</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>254.3923607105852</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>85.42466677586629</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>70.1947181196261</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27518,10 +27518,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.45171480772532</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>177.1114073084715</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>271.3262704184358</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863684</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>26.96838548399289</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840621958</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713721</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.6467691355729</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>62.24367415189795</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>44.3580123779002</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643436</v>
+        <v>1.905236112643493</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>60.51664980339206</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>120.8026817060232</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>293.4808965179913</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>51.98384452924373</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>240.1556507187933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365127</v>
+        <v>2.883746537365125</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579061</v>
+        <v>29.53316922579059</v>
       </c>
       <c r="I5" t="n">
         <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756936</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023595</v>
+        <v>366.8233736023593</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952476</v>
+        <v>455.0768316952473</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791146</v>
+        <v>506.3606591791143</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284033</v>
+        <v>514.554104028403</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974788</v>
+        <v>485.8788493974785</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562772</v>
+        <v>414.686356756277</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868885</v>
+        <v>311.4121838868883</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277623</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020788</v>
+        <v>65.71337422020784</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731585</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892101</v>
+        <v>0.2306997229892099</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270407</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316421</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189784</v>
+        <v>53.1231680818978</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862626</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453799</v>
+        <v>249.1510419453798</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438665</v>
+        <v>335.0143230438663</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874187</v>
+        <v>390.9459133874185</v>
       </c>
       <c r="N6" t="n">
-        <v>401.293088418912</v>
+        <v>401.2930884189118</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348677</v>
+        <v>367.1047769348675</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190659</v>
+        <v>294.6339480190658</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.954991573956</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392941</v>
+        <v>95.79765189392936</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399199</v>
+        <v>28.65944163399197</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989056</v>
+        <v>6.219132670989051</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
         <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572061</v>
+        <v>38.90055892572058</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402934</v>
+        <v>91.45394400402928</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
-        <v>192.315520154545</v>
+        <v>192.3155201545448</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773277</v>
+        <v>202.7697513773276</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022537</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669601</v>
+        <v>182.83733076696</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960661</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
         <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565115</v>
+        <v>58.16268574565112</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101764</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060663</v>
+        <v>5.52698388606066</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864688</v>
+        <v>0.07055724109864682</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747752</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.563237034051</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>489.9737736272061</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>284.9003516780501</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4402738502014</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>346.7710205055872</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33032,10 +33032,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
-        <v>153.8606640989137</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,13 +33740,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>687.544841654958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>340.7767527663067</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>312.3207226334981</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900733</v>
+        <v>63.70847814900719</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573789</v>
+        <v>146.7335225573787</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252603</v>
+        <v>219.31041672526</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518419</v>
+        <v>276.0144259518415</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318124</v>
+        <v>285.1410404318121</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757921</v>
+        <v>255.7806379757918</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010076</v>
+        <v>183.4533610010074</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243901</v>
+        <v>89.10649401243884</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600047</v>
+        <v>18.93640691959581</v>
       </c>
       <c r="K6" t="n">
-        <v>216.8564448964696</v>
+        <v>111.3096029710208</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639923</v>
+        <v>383.6877278154316</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654004</v>
+        <v>248.8118794654002</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355787</v>
+        <v>269.9513763355785</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904232</v>
+        <v>224.508532490423</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047357</v>
+        <v>160.6595406047355</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793448</v>
+        <v>101.3833102023519</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142348</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148611</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391683</v>
+        <v>242.3536283391682</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814823</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809998</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609596</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491155</v>
+        <v>22.15508137491148</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065827</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35258,19 +35258,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.926303694901</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507177</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>347.3775291827616</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240146</v>
       </c>
       <c r="Q12" t="n">
-        <v>144.9185775920286</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655348</v>
+        <v>14.87641069655356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>29.46586643587111</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066253</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010448</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>206.7892464195656</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>8.181160134949776</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2031295716247</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.7949786802852</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
